--- a/sputnik/personal/uch/uch329.xlsx
+++ b/sputnik/personal/uch/uch329.xlsx
@@ -39,9 +39,6 @@
     <t>Задолженность по оплате целевого взноса на стр-во скважины</t>
   </si>
   <si>
-    <t>Задолженность по оплате целевого взноса на стр-во  водоема (уч 251)</t>
-  </si>
-  <si>
     <t>Наименование / садовый участок № 329</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Оплачен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Задолженность по оплате целевого взноса на стр-во  водоема</t>
   </si>
 </sst>
 </file>
@@ -62,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -180,7 +180,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -193,10 +193,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +508,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -526,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>43221</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8">
         <v>2138</v>
@@ -600,7 +600,7 @@
         <v>43466</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="12">
         <v>840</v>
@@ -612,7 +612,7 @@
         <v>43586</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="11">
         <v>9721.25</v>
@@ -624,7 +624,7 @@
         <v>43725</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12">
@@ -636,7 +636,7 @@
         <v>43725</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11">

--- a/sputnik/personal/uch/uch329.xlsx
+++ b/sputnik/personal/uch/uch329.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Задолженность по оплате целевого взноса на стр-во  водоема</t>
+  </si>
+  <si>
+    <t>Начислен взнос 2020/2021</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -198,6 +201,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -508,7 +512,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -644,9 +648,15 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="16">
+        <v>43952</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12">
+        <v>11357.5</v>
+      </c>
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch329.xlsx
+++ b/sputnik/personal/uch/uch329.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Начислен взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Начислены пени за 91 д. просрочки</t>
   </si>
 </sst>
 </file>
@@ -84,7 +87,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -202,6 +211,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -512,7 +524,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -660,16 +672,35 @@
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="16">
+        <v>44196</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12">
+        <v>11357.5</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="17">
+        <v>44196</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="19">
+        <f>PRODUCT(D13,0.001,91)</f>
+        <v>1033.5325</v>
+      </c>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="13"/>

--- a/sputnik/personal/uch/uch329.xlsx
+++ b/sputnik/personal/uch/uch329.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Начислены пени за 91 д. просрочки</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,7 +209,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -524,7 +529,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A15" sqref="A15:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -552,7 +557,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -564,7 +569,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>43221</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -576,7 +581,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>43221</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -588,7 +593,7 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>43221</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -600,7 +605,7 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>43309</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -612,7 +617,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>43466</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -624,7 +629,7 @@
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>43586</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -636,7 +641,7 @@
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>43725</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -648,7 +653,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>43725</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -660,7 +665,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>43952</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -672,7 +677,7 @@
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>44196</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -684,43 +689,65 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>44196</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f>PRODUCT(D13,0.001,91)</f>
         <v>1033.5325</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="15">
+        <v>44317</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="12">
+        <v>11663.75</v>
+      </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="A16" s="15">
+        <v>44197</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="12">
+        <v>431.55</v>
+      </c>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch329.xlsx
+++ b/sputnik/personal/uch/uch329.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Оплачено</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Начислена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплачена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
   </si>
 </sst>
 </file>
@@ -526,16 +532,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D20"/>
+      <selection activeCell="A17" sqref="A17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="72.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -726,16 +732,28 @@
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="15">
+        <v>44460</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="12">
+        <v>11663.75</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="15">
+        <v>44460</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="12">
+        <v>431.55</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
@@ -748,6 +766,12 @@
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
